--- a/examples/javascript/forms/Test/TestSQLGroupByAfterJoin/TestSQLGroupByAfterJoin/Data/Database.xlsx
+++ b/examples/javascript/forms/Test/TestSQLGroupByAfterJoin/TestSQLGroupByAfterJoin/Data/Database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="RightTable" sheetId="2" r:id="rId2"/>
     <sheet name="JoinView" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,7 +36,7 @@
     <t>ClientName as LeftTable</t>
   </si>
   <si>
-    <t>ClientName</t>
+    <t>ClientName  as LeftTable</t>
   </si>
 </sst>
 </file>
@@ -377,9 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -416,7 +414,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,23 +517,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
